--- a/biology/Botanique/Magnoliidae/Magnoliidae.xlsx
+++ b/biology/Botanique/Magnoliidae/Magnoliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Magnoliidae, en français Magnoliidées[1], sont une sous-classe de plantes à fleurs. Le groupe d'êtres vivants auquel se rapporte ce nom scientifique varie selon les classifications successives.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Magnoliidae, en français Magnoliidées, sont une sous-classe de plantes à fleurs. Le groupe d'êtres vivants auquel se rapporte ce nom scientifique varie selon les classifications successives.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Historique et définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Magnoliidae est créé en 1967 par le botaniste soviéto-arménien Armen Takhtajan, publié dans son ouvrage Sistema i Filogeniia Tsvetkovykh Rastenii, à partir des travaux de František Antonín Novák[2]. Il est formé à partir du nom du genre type Magnolia (nommé en l'honneur du botaniste français Pierre Magnol), suivi de la terminaison -idae commune aux sous-classes en nomenclature botanique.
-La classification classique de Cronquist (1981)[3] place la sous-classe des Magnoliidae dans la classe des Magnoliopsida (Dicotylédones), division des Magnoliophyta (plantes à fleurs) et lui attribue huit ordres (voir infra). En 2009, Takhtajan publie sa seconde édition de son ouvrage Flowering Plants[4], qui, de même, place les Magnolidae dans la classe des Magnoliopsida, division des Magnoliophyta, mais lui attribue dix-sept ordres répartis en quatre super-ordres (voir infra).
-Les classifications de Dahlgren (1980)[5] et de Thorne (1992)[6] considèrent les plantes à fleurs comme la classe des Magnoliopsida divisée en deux sous-classes, les Liliidae (monocotylédones) et les Magnoliidae (dicotylédones).
-En 1998, la classification phylogénétique APG (1998)[7] introduit le clade des « magnoliids », redéfini par les mises à jours progressives des classifications phylogénétiques APGII[8], III[9] et IV[10]. En latin, « magnoliids » se dit Magnoliidae. Cette définition des Magnoliidae est suivie par le NCBI  (7 juillet 2022)[11] et la Paleobiology Database                   (7 juillet 2022)[12].
-Selon la classification APG III selon Chase et Reveal (2009)[13], le clade des « magnoliids » correspond au super-ordre des Magnolianae, chacun des clades principaux d'Angiospermes recevant le rang taxinomique de super-ordre. Il est classé avec l'ensemble des plantes à fleurs dans la sous-classe des Magnoliidae (voir infra), de la classe des Equisetopsida qui regroupe toutes les plantes terrestres, en cohérence avec la publication de Lewis et McCourt (2004)[14] selon laquelle, si les principaux clades d'algues vertes sont reconnus comme des classes, alors toutes les plantes terrestres devraient être incluses dans une seule classe. Cette définition des Magnoliidae est suivie par Tropicos                                           (7 juillet 2022)[15] (voir infra), l'INPN      (7 juillet 2022)[1] et The Taxonomicon  (7 juillet 2022)[16].
-En 2015, Ruggiero et al.[17] publient pour le Catalogue of Life une classification de tous les ordres du vivant. Les super-ordres de Chase et Reveal[13] sont alors conservés mais les plantes à fleurs sont élevées au rang de la super-classe des Angiospermae, contenant la seule classe des Magnoliopsida, et les plantes terrestres sont regroupées dans la super-division des Embryophyta, en cohérence avec l'attribution traditionnelle du statut de division aux principaux sous-groupes de Bryophytes, de Ptéridophytes et de plantes à graines[17]. Cette classification est suivie par l'ITIS      (5 juillet 2022)[18], qui considère donc le nom Magnoliidae comme un synonyme de Magnoliopsida.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Magnoliidae est créé en 1967 par le botaniste soviéto-arménien Armen Takhtajan, publié dans son ouvrage Sistema i Filogeniia Tsvetkovykh Rastenii, à partir des travaux de František Antonín Novák. Il est formé à partir du nom du genre type Magnolia (nommé en l'honneur du botaniste français Pierre Magnol), suivi de la terminaison -idae commune aux sous-classes en nomenclature botanique.
+La classification classique de Cronquist (1981) place la sous-classe des Magnoliidae dans la classe des Magnoliopsida (Dicotylédones), division des Magnoliophyta (plantes à fleurs) et lui attribue huit ordres (voir infra). En 2009, Takhtajan publie sa seconde édition de son ouvrage Flowering Plants, qui, de même, place les Magnolidae dans la classe des Magnoliopsida, division des Magnoliophyta, mais lui attribue dix-sept ordres répartis en quatre super-ordres (voir infra).
+Les classifications de Dahlgren (1980) et de Thorne (1992) considèrent les plantes à fleurs comme la classe des Magnoliopsida divisée en deux sous-classes, les Liliidae (monocotylédones) et les Magnoliidae (dicotylédones).
+En 1998, la classification phylogénétique APG (1998) introduit le clade des « magnoliids », redéfini par les mises à jours progressives des classifications phylogénétiques APGII, III et IV. En latin, « magnoliids » se dit Magnoliidae. Cette définition des Magnoliidae est suivie par le NCBI  (7 juillet 2022) et la Paleobiology Database                   (7 juillet 2022).
+Selon la classification APG III selon Chase et Reveal (2009), le clade des « magnoliids » correspond au super-ordre des Magnolianae, chacun des clades principaux d'Angiospermes recevant le rang taxinomique de super-ordre. Il est classé avec l'ensemble des plantes à fleurs dans la sous-classe des Magnoliidae (voir infra), de la classe des Equisetopsida qui regroupe toutes les plantes terrestres, en cohérence avec la publication de Lewis et McCourt (2004) selon laquelle, si les principaux clades d'algues vertes sont reconnus comme des classes, alors toutes les plantes terrestres devraient être incluses dans une seule classe. Cette définition des Magnoliidae est suivie par Tropicos                                           (7 juillet 2022) (voir infra), l'INPN      (7 juillet 2022) et The Taxonomicon  (7 juillet 2022).
+En 2015, Ruggiero et al. publient pour le Catalogue of Life une classification de tous les ordres du vivant. Les super-ordres de Chase et Reveal sont alors conservés mais les plantes à fleurs sont élevées au rang de la super-classe des Angiospermae, contenant la seule classe des Magnoliopsida, et les plantes terrestres sont regroupées dans la super-division des Embryophyta, en cohérence avec l'attribution traditionnelle du statut de division aux principaux sous-groupes de Bryophytes, de Ptéridophytes et de plantes à graines. Cette classification est suivie par l'ITIS      (5 juillet 2022), qui considère donc le nom Magnoliidae comme un synonyme de Magnoliopsida.
 </t>
         </is>
       </c>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cronquist (1981)
-Selon la classification classique de Cronquist (1981)[3] (huit ordres) :
+          <t>Cronquist (1981)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification classique de Cronquist (1981) (huit ordres) :
 Aristolochiales
 Illiciales
 Laurales
@@ -559,8 +578,43 @@
 Papaverales
 Piperales
 Ranunculales
-Takhtajan (2009)
-Selon Takhtajan (2009)[4] (dix-sept ordres) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Magnoliidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magnoliidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des ordres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Takhtajan (2009)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Takhtajan (2009) (dix-sept ordres) :
 super-ordre des Nymphaeanae
 ordre des Amborellales
 famille des Amborellaceae
@@ -620,8 +674,43 @@
 famille des Apodanthaceae
 famille des Rafflesiaceae
 famille des Cytinaceae
-Chase et Reveal d'après APG III (2009)
-Selon Chase et Reveal[13], d'après la classification phylogénétique APG III (2009)[9], applicable à la classification phylogénétique APG IV (2016)[10] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Magnoliidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magnoliidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des ordres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chase et Reveal d'après APG III (2009)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Chase et Reveal, d'après la classification phylogénétique APG III (2009), applicable à la classification phylogénétique APG IV (2016) :
 (angiospermes) sous-classe des Magnoliidae Novák ex Takht., 1967
 super-ordre des Amborellanae M.W.Chase &amp; Reveal, 1948
 super-ordre des Nymphaeanae Thorne ex Reveal, 1992
@@ -705,8 +794,43 @@
 ordre des Dipsacales Juss. ex Bercht. &amp; J.Presl, 1820
 ordre des Escalloniales Link, 1829
 ordre des Paracryphiales Takht. ex Reveal, 1992
-Tropicos (2022)
-Selon Tropicos                                           (7 juillet 2022)[15] (liste brute contenant des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Magnoliidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magnoliidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des ordres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tropicos (2022)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (7 juillet 2022) (liste brute contenant des synonymes) :
 Acoranae Reveal, 1997
 Amborellanae M.W. Chase &amp; Reveal, 2009
 Aranae Thorne ex Reveal, 1992
@@ -723,10 +847,10 @@
 Ceratophyllanae Takht. ex Reveal &amp; Doweld, 1999
 Chloranthales Conz. &amp; L.C. Sm. ex Reveal, 1992
 Chloranthanae Doweld, 2001
-Cornanae Thorne ex Reveal, 1995 [1996]
+Cornanae Thorne ex Reveal, 1995 
 Cornanae Thorne ex Reveal, 1992
 Cyclanthanae Thorne ex Reveal, 1992
-Cyclanthanae Thorne ex Reveal, 1995 [1996]
+Cyclanthanae Thorne ex Reveal, 1995 
 Daphniphyllales Pulle, Monogr. Phan., 1952
 Dillenianae Takht. ex Doweld, 2001
 Dillenianae Takht. ex Reveal &amp; Takht., 1993
@@ -744,14 +868,14 @@
 Lecythidanae Takht. ex Reveal, 1992
 Lilianae Takht., 1967
 Loasanae R. Dahlgren ex Reveal, 1992
-Loasanae R. Dahlgren ex Reveal, 1995 [1996]
-Magnolianae Takht., 1966 [1967]
+Loasanae R. Dahlgren ex Reveal, 1995 
+Magnolianae Takht., 1966 
 Medusagynales Takht. ex Reveal &amp; Doweld, 1999
 Myrothamnanae Takht., 1997
 Najadanae Takht. ex Reveal, 1992
 Nelumbonanae Takht. ex Reveal, 1992
 Nepenthanae Takht. ex Reveal, 1992
-Nepenthanae Takht. ex Reveal, 1995 [1996]
+Nepenthanae Takht. ex Reveal, 1995 
 Nymphaeanae Thorne ex Reveal, 1992
 Pandananae Thorne ex Reveal, 1992
 Papaverales Diels
@@ -761,23 +885,23 @@
 Polygonanae Takht. ex Reveal, 1992
 Pontederianae Takht. ex Reveal, 1992
 Primulanae R. Dahlgren ex Reveal, 1992
-Primulanae R. Dahlgren ex Reveal, 1995 [1996]
+Primulanae R. Dahlgren ex Reveal, 1995 
 Proteanae Takht., 1967
-Rafflesianae Thorne ex Reveal, 1995 [1996]
+Rafflesianae Thorne ex Reveal, 1995 
 Rafflesianae Thorne ex Reveal, 1992
 Ranunculanae Takht. ex Reveal, 1992
 Rapateanae Doweld, 2001
 Rhamnanae Takht. ex Reveal, 1992
 Rosanae Takht., 1967
 Santalanae Thorne ex Reveal, 1992
-Sarracenianae Thorne ex Reveal, 1995 [1996]
+Sarracenianae Thorne ex Reveal, 1995 
 Sarracenianae Thorne ex Reveal, 1992
 Saxifraganae Reveal, Phytologia 76: 4, 1994
 Solananae R. Dahlgren ex Reveal, 1992
 Theanae Thorne ex Reveal, 1992
 Triuridanae Thorne ex Reveal, 1992
 Trochodendranae Takht. ex Reveal, 1992
-Trochodendranae Takht. ex Reveal, 1995 [1996]
+Trochodendranae Takht. ex Reveal, 1995 
 Typhanae Thorne ex Reveal, 1992
 Urticanae Takht. ex Reveal, 1992
 Violanae R. Dahlgren ex Reveal, 1992
